--- a/grid.xlsx
+++ b/grid.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF05EBF-73EA-4FE0-9897-6F028BE8290E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$CV$300</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$CH$252</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,13 +22,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -467,16 +473,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI836"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="EH27" sqref="EH27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A220" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="DB7" sqref="DB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -602,7 +608,7 @@
       <c r="DS1" s="1"/>
       <c r="DT1" s="1"/>
     </row>
-    <row r="2" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -728,7 +734,7 @@
       <c r="DS2" s="1"/>
       <c r="DT2" s="1"/>
     </row>
-    <row r="3" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -854,7 +860,7 @@
       <c r="DS3" s="1"/>
       <c r="DT3" s="1"/>
     </row>
-    <row r="4" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -980,7 +986,7 @@
       <c r="DS4" s="1"/>
       <c r="DT4" s="1"/>
     </row>
-    <row r="5" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1106,7 +1112,7 @@
       <c r="DS5" s="1"/>
       <c r="DT5" s="1"/>
     </row>
-    <row r="6" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1232,7 +1238,7 @@
       <c r="DS6" s="1"/>
       <c r="DT6" s="1"/>
     </row>
-    <row r="7" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1358,7 +1364,7 @@
       <c r="DS7" s="1"/>
       <c r="DT7" s="1"/>
     </row>
-    <row r="8" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1484,7 +1490,7 @@
       <c r="DS8" s="1"/>
       <c r="DT8" s="1"/>
     </row>
-    <row r="9" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1610,7 +1616,7 @@
       <c r="DS9" s="1"/>
       <c r="DT9" s="1"/>
     </row>
-    <row r="10" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1736,7 +1742,7 @@
       <c r="DS10" s="1"/>
       <c r="DT10" s="1"/>
     </row>
-    <row r="11" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1862,7 +1868,7 @@
       <c r="DS11" s="1"/>
       <c r="DT11" s="1"/>
     </row>
-    <row r="12" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1988,7 +1994,7 @@
       <c r="DS12" s="1"/>
       <c r="DT12" s="1"/>
     </row>
-    <row r="13" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2114,7 +2120,7 @@
       <c r="DS13" s="1"/>
       <c r="DT13" s="1"/>
     </row>
-    <row r="14" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2240,7 +2246,7 @@
       <c r="DS14" s="1"/>
       <c r="DT14" s="1"/>
     </row>
-    <row r="15" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -2366,7 +2372,7 @@
       <c r="DS15" s="1"/>
       <c r="DT15" s="1"/>
     </row>
-    <row r="16" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2507,7 +2513,7 @@
       <c r="EH16" s="3"/>
       <c r="EI16" s="4"/>
     </row>
-    <row r="17" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2648,7 +2654,7 @@
       <c r="EH17" s="1"/>
       <c r="EI17" s="6"/>
     </row>
-    <row r="18" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2789,7 +2795,7 @@
       <c r="EH18" s="1"/>
       <c r="EI18" s="6"/>
     </row>
-    <row r="19" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2930,7 +2936,7 @@
       <c r="EH19" s="1"/>
       <c r="EI19" s="6"/>
     </row>
-    <row r="20" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -3071,7 +3077,7 @@
       <c r="EH20" s="1"/>
       <c r="EI20" s="6"/>
     </row>
-    <row r="21" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -3212,7 +3218,7 @@
       <c r="EH21" s="1"/>
       <c r="EI21" s="6"/>
     </row>
-    <row r="22" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -3353,7 +3359,7 @@
       <c r="EH22" s="1"/>
       <c r="EI22" s="6"/>
     </row>
-    <row r="23" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -3494,7 +3500,7 @@
       <c r="EH23" s="1"/>
       <c r="EI23" s="6"/>
     </row>
-    <row r="24" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -3635,7 +3641,7 @@
       <c r="EH24" s="1"/>
       <c r="EI24" s="6"/>
     </row>
-    <row r="25" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -3776,7 +3782,7 @@
       <c r="EH25" s="1"/>
       <c r="EI25" s="6"/>
     </row>
-    <row r="26" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -3917,7 +3923,7 @@
       <c r="EH26" s="1"/>
       <c r="EI26" s="6"/>
     </row>
-    <row r="27" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -4058,7 +4064,7 @@
       <c r="EH27" s="1"/>
       <c r="EI27" s="6"/>
     </row>
-    <row r="28" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -4199,7 +4205,7 @@
       <c r="EH28" s="1"/>
       <c r="EI28" s="6"/>
     </row>
-    <row r="29" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4340,7 +4346,7 @@
       <c r="EH29" s="1"/>
       <c r="EI29" s="6"/>
     </row>
-    <row r="30" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4481,7 +4487,7 @@
       <c r="EH30" s="8"/>
       <c r="EI30" s="9"/>
     </row>
-    <row r="31" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -4607,7 +4613,7 @@
       <c r="DS31" s="1"/>
       <c r="DT31" s="1"/>
     </row>
-    <row r="32" spans="1:139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:139" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -4733,7 +4739,7 @@
       <c r="DS32" s="1"/>
       <c r="DT32" s="1"/>
     </row>
-    <row r="33" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -4859,7 +4865,7 @@
       <c r="DS33" s="1"/>
       <c r="DT33" s="1"/>
     </row>
-    <row r="34" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -4985,7 +4991,7 @@
       <c r="DS34" s="1"/>
       <c r="DT34" s="1"/>
     </row>
-    <row r="35" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -5111,7 +5117,7 @@
       <c r="DS35" s="1"/>
       <c r="DT35" s="1"/>
     </row>
-    <row r="36" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -5237,7 +5243,7 @@
       <c r="DS36" s="1"/>
       <c r="DT36" s="1"/>
     </row>
-    <row r="37" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -5363,7 +5369,7 @@
       <c r="DS37" s="1"/>
       <c r="DT37" s="1"/>
     </row>
-    <row r="38" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -5489,7 +5495,7 @@
       <c r="DS38" s="1"/>
       <c r="DT38" s="1"/>
     </row>
-    <row r="39" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -5615,7 +5621,7 @@
       <c r="DS39" s="1"/>
       <c r="DT39" s="1"/>
     </row>
-    <row r="40" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -5741,7 +5747,7 @@
       <c r="DS40" s="1"/>
       <c r="DT40" s="1"/>
     </row>
-    <row r="41" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -5867,7 +5873,7 @@
       <c r="DS41" s="1"/>
       <c r="DT41" s="1"/>
     </row>
-    <row r="42" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -5993,7 +5999,7 @@
       <c r="DS42" s="1"/>
       <c r="DT42" s="1"/>
     </row>
-    <row r="43" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -6119,7 +6125,7 @@
       <c r="DS43" s="1"/>
       <c r="DT43" s="1"/>
     </row>
-    <row r="44" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -6245,7 +6251,7 @@
       <c r="DS44" s="1"/>
       <c r="DT44" s="1"/>
     </row>
-    <row r="45" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -6371,7 +6377,7 @@
       <c r="DS45" s="1"/>
       <c r="DT45" s="1"/>
     </row>
-    <row r="46" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -6497,7 +6503,7 @@
       <c r="DS46" s="1"/>
       <c r="DT46" s="1"/>
     </row>
-    <row r="47" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -6623,7 +6629,7 @@
       <c r="DS47" s="1"/>
       <c r="DT47" s="1"/>
     </row>
-    <row r="48" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -6749,7 +6755,7 @@
       <c r="DS48" s="1"/>
       <c r="DT48" s="1"/>
     </row>
-    <row r="49" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -6875,7 +6881,7 @@
       <c r="DS49" s="1"/>
       <c r="DT49" s="1"/>
     </row>
-    <row r="50" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -7001,7 +7007,7 @@
       <c r="DS50" s="1"/>
       <c r="DT50" s="1"/>
     </row>
-    <row r="51" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -7127,7 +7133,7 @@
       <c r="DS51" s="1"/>
       <c r="DT51" s="1"/>
     </row>
-    <row r="52" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -7253,7 +7259,7 @@
       <c r="DS52" s="1"/>
       <c r="DT52" s="1"/>
     </row>
-    <row r="53" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -7379,7 +7385,7 @@
       <c r="DS53" s="1"/>
       <c r="DT53" s="1"/>
     </row>
-    <row r="54" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -7505,7 +7511,7 @@
       <c r="DS54" s="1"/>
       <c r="DT54" s="1"/>
     </row>
-    <row r="55" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -7631,7 +7637,7 @@
       <c r="DS55" s="1"/>
       <c r="DT55" s="1"/>
     </row>
-    <row r="56" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -7757,7 +7763,7 @@
       <c r="DS56" s="1"/>
       <c r="DT56" s="1"/>
     </row>
-    <row r="57" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -7883,7 +7889,7 @@
       <c r="DS57" s="1"/>
       <c r="DT57" s="1"/>
     </row>
-    <row r="58" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -8009,7 +8015,7 @@
       <c r="DS58" s="1"/>
       <c r="DT58" s="1"/>
     </row>
-    <row r="59" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -8135,7 +8141,7 @@
       <c r="DS59" s="1"/>
       <c r="DT59" s="1"/>
     </row>
-    <row r="60" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -8261,7 +8267,7 @@
       <c r="DS60" s="1"/>
       <c r="DT60" s="1"/>
     </row>
-    <row r="61" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -8387,7 +8393,7 @@
       <c r="DS61" s="1"/>
       <c r="DT61" s="1"/>
     </row>
-    <row r="62" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -8513,7 +8519,7 @@
       <c r="DS62" s="1"/>
       <c r="DT62" s="1"/>
     </row>
-    <row r="63" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -8639,7 +8645,7 @@
       <c r="DS63" s="1"/>
       <c r="DT63" s="1"/>
     </row>
-    <row r="64" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -8765,7 +8771,7 @@
       <c r="DS64" s="1"/>
       <c r="DT64" s="1"/>
     </row>
-    <row r="65" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -8891,7 +8897,7 @@
       <c r="DS65" s="1"/>
       <c r="DT65" s="1"/>
     </row>
-    <row r="66" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -9017,7 +9023,7 @@
       <c r="DS66" s="1"/>
       <c r="DT66" s="1"/>
     </row>
-    <row r="67" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -9143,7 +9149,7 @@
       <c r="DS67" s="1"/>
       <c r="DT67" s="1"/>
     </row>
-    <row r="68" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -9269,7 +9275,7 @@
       <c r="DS68" s="1"/>
       <c r="DT68" s="1"/>
     </row>
-    <row r="69" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -9395,7 +9401,7 @@
       <c r="DS69" s="1"/>
       <c r="DT69" s="1"/>
     </row>
-    <row r="70" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -9521,7 +9527,7 @@
       <c r="DS70" s="1"/>
       <c r="DT70" s="1"/>
     </row>
-    <row r="71" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -9647,7 +9653,7 @@
       <c r="DS71" s="1"/>
       <c r="DT71" s="1"/>
     </row>
-    <row r="72" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -9773,7 +9779,7 @@
       <c r="DS72" s="1"/>
       <c r="DT72" s="1"/>
     </row>
-    <row r="73" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -9899,7 +9905,7 @@
       <c r="DS73" s="1"/>
       <c r="DT73" s="1"/>
     </row>
-    <row r="74" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -10025,7 +10031,7 @@
       <c r="DS74" s="1"/>
       <c r="DT74" s="1"/>
     </row>
-    <row r="75" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -10151,7 +10157,7 @@
       <c r="DS75" s="1"/>
       <c r="DT75" s="1"/>
     </row>
-    <row r="76" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -10277,7 +10283,7 @@
       <c r="DS76" s="1"/>
       <c r="DT76" s="1"/>
     </row>
-    <row r="77" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -10403,7 +10409,7 @@
       <c r="DS77" s="1"/>
       <c r="DT77" s="1"/>
     </row>
-    <row r="78" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -10529,7 +10535,7 @@
       <c r="DS78" s="1"/>
       <c r="DT78" s="1"/>
     </row>
-    <row r="79" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -10655,7 +10661,7 @@
       <c r="DS79" s="1"/>
       <c r="DT79" s="1"/>
     </row>
-    <row r="80" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -10781,7 +10787,7 @@
       <c r="DS80" s="1"/>
       <c r="DT80" s="1"/>
     </row>
-    <row r="81" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -10907,7 +10913,7 @@
       <c r="DS81" s="1"/>
       <c r="DT81" s="1"/>
     </row>
-    <row r="82" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -11033,7 +11039,7 @@
       <c r="DS82" s="1"/>
       <c r="DT82" s="1"/>
     </row>
-    <row r="83" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -11159,7 +11165,7 @@
       <c r="DS83" s="1"/>
       <c r="DT83" s="1"/>
     </row>
-    <row r="84" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -11285,7 +11291,7 @@
       <c r="DS84" s="1"/>
       <c r="DT84" s="1"/>
     </row>
-    <row r="85" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -11411,7 +11417,7 @@
       <c r="DS85" s="1"/>
       <c r="DT85" s="1"/>
     </row>
-    <row r="86" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -11537,7 +11543,7 @@
       <c r="DS86" s="1"/>
       <c r="DT86" s="1"/>
     </row>
-    <row r="87" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -11663,7 +11669,7 @@
       <c r="DS87" s="1"/>
       <c r="DT87" s="1"/>
     </row>
-    <row r="88" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -11789,7 +11795,7 @@
       <c r="DS88" s="1"/>
       <c r="DT88" s="1"/>
     </row>
-    <row r="89" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -11915,7 +11921,7 @@
       <c r="DS89" s="1"/>
       <c r="DT89" s="1"/>
     </row>
-    <row r="90" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -12041,7 +12047,7 @@
       <c r="DS90" s="1"/>
       <c r="DT90" s="1"/>
     </row>
-    <row r="91" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -12167,7 +12173,7 @@
       <c r="DS91" s="1"/>
       <c r="DT91" s="1"/>
     </row>
-    <row r="92" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -12293,7 +12299,7 @@
       <c r="DS92" s="1"/>
       <c r="DT92" s="1"/>
     </row>
-    <row r="93" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -12419,7 +12425,7 @@
       <c r="DS93" s="1"/>
       <c r="DT93" s="1"/>
     </row>
-    <row r="94" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -12545,7 +12551,7 @@
       <c r="DS94" s="1"/>
       <c r="DT94" s="1"/>
     </row>
-    <row r="95" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -12671,7 +12677,7 @@
       <c r="DS95" s="1"/>
       <c r="DT95" s="1"/>
     </row>
-    <row r="96" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -12797,7 +12803,7 @@
       <c r="DS96" s="1"/>
       <c r="DT96" s="1"/>
     </row>
-    <row r="97" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -12923,7 +12929,7 @@
       <c r="DS97" s="1"/>
       <c r="DT97" s="1"/>
     </row>
-    <row r="98" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -13049,7 +13055,7 @@
       <c r="DS98" s="1"/>
       <c r="DT98" s="1"/>
     </row>
-    <row r="99" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -13175,7 +13181,7 @@
       <c r="DS99" s="1"/>
       <c r="DT99" s="1"/>
     </row>
-    <row r="100" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -13301,7 +13307,7 @@
       <c r="DS100" s="1"/>
       <c r="DT100" s="1"/>
     </row>
-    <row r="101" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -13427,7 +13433,7 @@
       <c r="DS101" s="1"/>
       <c r="DT101" s="1"/>
     </row>
-    <row r="102" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -13553,7 +13559,7 @@
       <c r="DS102" s="1"/>
       <c r="DT102" s="1"/>
     </row>
-    <row r="103" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -13679,7 +13685,7 @@
       <c r="DS103" s="1"/>
       <c r="DT103" s="1"/>
     </row>
-    <row r="104" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -13805,7 +13811,7 @@
       <c r="DS104" s="1"/>
       <c r="DT104" s="1"/>
     </row>
-    <row r="105" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -13931,7 +13937,7 @@
       <c r="DS105" s="1"/>
       <c r="DT105" s="1"/>
     </row>
-    <row r="106" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -14057,7 +14063,7 @@
       <c r="DS106" s="1"/>
       <c r="DT106" s="1"/>
     </row>
-    <row r="107" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -14183,7 +14189,7 @@
       <c r="DS107" s="1"/>
       <c r="DT107" s="1"/>
     </row>
-    <row r="108" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -14309,7 +14315,7 @@
       <c r="DS108" s="1"/>
       <c r="DT108" s="1"/>
     </row>
-    <row r="109" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -14435,7 +14441,7 @@
       <c r="DS109" s="1"/>
       <c r="DT109" s="1"/>
     </row>
-    <row r="110" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -14561,7 +14567,7 @@
       <c r="DS110" s="1"/>
       <c r="DT110" s="1"/>
     </row>
-    <row r="111" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -14687,7 +14693,7 @@
       <c r="DS111" s="1"/>
       <c r="DT111" s="1"/>
     </row>
-    <row r="112" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -14813,7 +14819,7 @@
       <c r="DS112" s="1"/>
       <c r="DT112" s="1"/>
     </row>
-    <row r="113" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -14939,7 +14945,7 @@
       <c r="DS113" s="1"/>
       <c r="DT113" s="1"/>
     </row>
-    <row r="114" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -15065,7 +15071,7 @@
       <c r="DS114" s="1"/>
       <c r="DT114" s="1"/>
     </row>
-    <row r="115" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -15191,7 +15197,7 @@
       <c r="DS115" s="1"/>
       <c r="DT115" s="1"/>
     </row>
-    <row r="116" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -15317,7 +15323,7 @@
       <c r="DS116" s="1"/>
       <c r="DT116" s="1"/>
     </row>
-    <row r="117" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -15443,7 +15449,7 @@
       <c r="DS117" s="1"/>
       <c r="DT117" s="1"/>
     </row>
-    <row r="118" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -15569,7 +15575,7 @@
       <c r="DS118" s="1"/>
       <c r="DT118" s="1"/>
     </row>
-    <row r="119" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -15695,7 +15701,7 @@
       <c r="DS119" s="1"/>
       <c r="DT119" s="1"/>
     </row>
-    <row r="120" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -15821,7 +15827,7 @@
       <c r="DS120" s="1"/>
       <c r="DT120" s="1"/>
     </row>
-    <row r="121" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -15947,7 +15953,7 @@
       <c r="DS121" s="1"/>
       <c r="DT121" s="1"/>
     </row>
-    <row r="122" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -16073,7 +16079,7 @@
       <c r="DS122" s="1"/>
       <c r="DT122" s="1"/>
     </row>
-    <row r="123" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -16199,7 +16205,7 @@
       <c r="DS123" s="1"/>
       <c r="DT123" s="1"/>
     </row>
-    <row r="124" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -16325,7 +16331,7 @@
       <c r="DS124" s="1"/>
       <c r="DT124" s="1"/>
     </row>
-    <row r="125" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -16451,7 +16457,7 @@
       <c r="DS125" s="1"/>
       <c r="DT125" s="1"/>
     </row>
-    <row r="126" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -16577,7 +16583,7 @@
       <c r="DS126" s="1"/>
       <c r="DT126" s="1"/>
     </row>
-    <row r="127" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -16703,7 +16709,7 @@
       <c r="DS127" s="1"/>
       <c r="DT127" s="1"/>
     </row>
-    <row r="128" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -16829,7 +16835,7 @@
       <c r="DS128" s="1"/>
       <c r="DT128" s="1"/>
     </row>
-    <row r="129" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -16955,7 +16961,7 @@
       <c r="DS129" s="1"/>
       <c r="DT129" s="1"/>
     </row>
-    <row r="130" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -17081,7 +17087,7 @@
       <c r="DS130" s="1"/>
       <c r="DT130" s="1"/>
     </row>
-    <row r="131" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -17207,7 +17213,7 @@
       <c r="DS131" s="1"/>
       <c r="DT131" s="1"/>
     </row>
-    <row r="132" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -17333,7 +17339,7 @@
       <c r="DS132" s="1"/>
       <c r="DT132" s="1"/>
     </row>
-    <row r="133" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -17459,7 +17465,7 @@
       <c r="DS133" s="1"/>
       <c r="DT133" s="1"/>
     </row>
-    <row r="134" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -17585,7 +17591,7 @@
       <c r="DS134" s="1"/>
       <c r="DT134" s="1"/>
     </row>
-    <row r="135" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -17711,7 +17717,7 @@
       <c r="DS135" s="1"/>
       <c r="DT135" s="1"/>
     </row>
-    <row r="136" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -17837,7 +17843,7 @@
       <c r="DS136" s="1"/>
       <c r="DT136" s="1"/>
     </row>
-    <row r="137" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -17963,7 +17969,7 @@
       <c r="DS137" s="1"/>
       <c r="DT137" s="1"/>
     </row>
-    <row r="138" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -18089,7 +18095,7 @@
       <c r="DS138" s="1"/>
       <c r="DT138" s="1"/>
     </row>
-    <row r="139" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -18215,7 +18221,7 @@
       <c r="DS139" s="1"/>
       <c r="DT139" s="1"/>
     </row>
-    <row r="140" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -18341,7 +18347,7 @@
       <c r="DS140" s="1"/>
       <c r="DT140" s="1"/>
     </row>
-    <row r="141" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -18467,7 +18473,7 @@
       <c r="DS141" s="1"/>
       <c r="DT141" s="1"/>
     </row>
-    <row r="142" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -18593,7 +18599,7 @@
       <c r="DS142" s="1"/>
       <c r="DT142" s="1"/>
     </row>
-    <row r="143" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -18719,7 +18725,7 @@
       <c r="DS143" s="1"/>
       <c r="DT143" s="1"/>
     </row>
-    <row r="144" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -18845,7 +18851,7 @@
       <c r="DS144" s="1"/>
       <c r="DT144" s="1"/>
     </row>
-    <row r="145" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -18971,7 +18977,7 @@
       <c r="DS145" s="1"/>
       <c r="DT145" s="1"/>
     </row>
-    <row r="146" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -19097,7 +19103,7 @@
       <c r="DS146" s="1"/>
       <c r="DT146" s="1"/>
     </row>
-    <row r="147" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -19223,7 +19229,7 @@
       <c r="DS147" s="1"/>
       <c r="DT147" s="1"/>
     </row>
-    <row r="148" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -19349,7 +19355,7 @@
       <c r="DS148" s="1"/>
       <c r="DT148" s="1"/>
     </row>
-    <row r="149" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -19475,7 +19481,7 @@
       <c r="DS149" s="1"/>
       <c r="DT149" s="1"/>
     </row>
-    <row r="150" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -19601,7 +19607,7 @@
       <c r="DS150" s="1"/>
       <c r="DT150" s="1"/>
     </row>
-    <row r="151" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -19727,7 +19733,7 @@
       <c r="DS151" s="1"/>
       <c r="DT151" s="1"/>
     </row>
-    <row r="152" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -19853,7 +19859,7 @@
       <c r="DS152" s="1"/>
       <c r="DT152" s="1"/>
     </row>
-    <row r="153" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -19979,7 +19985,7 @@
       <c r="DS153" s="1"/>
       <c r="DT153" s="1"/>
     </row>
-    <row r="154" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -20105,7 +20111,7 @@
       <c r="DS154" s="1"/>
       <c r="DT154" s="1"/>
     </row>
-    <row r="155" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -20231,7 +20237,7 @@
       <c r="DS155" s="1"/>
       <c r="DT155" s="1"/>
     </row>
-    <row r="156" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -20357,7 +20363,7 @@
       <c r="DS156" s="1"/>
       <c r="DT156" s="1"/>
     </row>
-    <row r="157" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -20483,7 +20489,7 @@
       <c r="DS157" s="1"/>
       <c r="DT157" s="1"/>
     </row>
-    <row r="158" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -20609,7 +20615,7 @@
       <c r="DS158" s="1"/>
       <c r="DT158" s="1"/>
     </row>
-    <row r="159" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -20735,7 +20741,7 @@
       <c r="DS159" s="1"/>
       <c r="DT159" s="1"/>
     </row>
-    <row r="160" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -20861,7 +20867,7 @@
       <c r="DS160" s="1"/>
       <c r="DT160" s="1"/>
     </row>
-    <row r="161" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -20987,7 +20993,7 @@
       <c r="DS161" s="1"/>
       <c r="DT161" s="1"/>
     </row>
-    <row r="162" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -21113,7 +21119,7 @@
       <c r="DS162" s="1"/>
       <c r="DT162" s="1"/>
     </row>
-    <row r="163" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -21239,7 +21245,7 @@
       <c r="DS163" s="1"/>
       <c r="DT163" s="1"/>
     </row>
-    <row r="164" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -21365,7 +21371,7 @@
       <c r="DS164" s="1"/>
       <c r="DT164" s="1"/>
     </row>
-    <row r="165" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -21491,7 +21497,7 @@
       <c r="DS165" s="1"/>
       <c r="DT165" s="1"/>
     </row>
-    <row r="166" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -21617,7 +21623,7 @@
       <c r="DS166" s="1"/>
       <c r="DT166" s="1"/>
     </row>
-    <row r="167" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -21743,7 +21749,7 @@
       <c r="DS167" s="1"/>
       <c r="DT167" s="1"/>
     </row>
-    <row r="168" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -21869,7 +21875,7 @@
       <c r="DS168" s="1"/>
       <c r="DT168" s="1"/>
     </row>
-    <row r="169" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -21995,7 +22001,7 @@
       <c r="DS169" s="1"/>
       <c r="DT169" s="1"/>
     </row>
-    <row r="170" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -22121,7 +22127,7 @@
       <c r="DS170" s="1"/>
       <c r="DT170" s="1"/>
     </row>
-    <row r="171" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -22247,7 +22253,7 @@
       <c r="DS171" s="1"/>
       <c r="DT171" s="1"/>
     </row>
-    <row r="172" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -22373,7 +22379,7 @@
       <c r="DS172" s="1"/>
       <c r="DT172" s="1"/>
     </row>
-    <row r="173" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -22499,7 +22505,7 @@
       <c r="DS173" s="1"/>
       <c r="DT173" s="1"/>
     </row>
-    <row r="174" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -22625,7 +22631,7 @@
       <c r="DS174" s="1"/>
       <c r="DT174" s="1"/>
     </row>
-    <row r="175" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -22751,7 +22757,7 @@
       <c r="DS175" s="1"/>
       <c r="DT175" s="1"/>
     </row>
-    <row r="176" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -22877,7 +22883,7 @@
       <c r="DS176" s="1"/>
       <c r="DT176" s="1"/>
     </row>
-    <row r="177" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -23003,7 +23009,7 @@
       <c r="DS177" s="1"/>
       <c r="DT177" s="1"/>
     </row>
-    <row r="178" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -23129,7 +23135,7 @@
       <c r="DS178" s="1"/>
       <c r="DT178" s="1"/>
     </row>
-    <row r="179" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -23255,7 +23261,7 @@
       <c r="DS179" s="1"/>
       <c r="DT179" s="1"/>
     </row>
-    <row r="180" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -23381,7 +23387,7 @@
       <c r="DS180" s="1"/>
       <c r="DT180" s="1"/>
     </row>
-    <row r="181" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -23507,7 +23513,7 @@
       <c r="DS181" s="1"/>
       <c r="DT181" s="1"/>
     </row>
-    <row r="182" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -23633,7 +23639,7 @@
       <c r="DS182" s="1"/>
       <c r="DT182" s="1"/>
     </row>
-    <row r="183" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -23759,7 +23765,7 @@
       <c r="DS183" s="1"/>
       <c r="DT183" s="1"/>
     </row>
-    <row r="184" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -23885,7 +23891,7 @@
       <c r="DS184" s="1"/>
       <c r="DT184" s="1"/>
     </row>
-    <row r="185" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -24011,7 +24017,7 @@
       <c r="DS185" s="1"/>
       <c r="DT185" s="1"/>
     </row>
-    <row r="186" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -24137,7 +24143,7 @@
       <c r="DS186" s="1"/>
       <c r="DT186" s="1"/>
     </row>
-    <row r="187" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -24263,7 +24269,7 @@
       <c r="DS187" s="1"/>
       <c r="DT187" s="1"/>
     </row>
-    <row r="188" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -24389,7 +24395,7 @@
       <c r="DS188" s="1"/>
       <c r="DT188" s="1"/>
     </row>
-    <row r="189" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -24515,7 +24521,7 @@
       <c r="DS189" s="1"/>
       <c r="DT189" s="1"/>
     </row>
-    <row r="190" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -24641,7 +24647,7 @@
       <c r="DS190" s="1"/>
       <c r="DT190" s="1"/>
     </row>
-    <row r="191" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -24767,7 +24773,7 @@
       <c r="DS191" s="1"/>
       <c r="DT191" s="1"/>
     </row>
-    <row r="192" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -24893,7 +24899,7 @@
       <c r="DS192" s="1"/>
       <c r="DT192" s="1"/>
     </row>
-    <row r="193" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -25019,7 +25025,7 @@
       <c r="DS193" s="1"/>
       <c r="DT193" s="1"/>
     </row>
-    <row r="194" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -25145,7 +25151,7 @@
       <c r="DS194" s="1"/>
       <c r="DT194" s="1"/>
     </row>
-    <row r="195" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -25271,7 +25277,7 @@
       <c r="DS195" s="1"/>
       <c r="DT195" s="1"/>
     </row>
-    <row r="196" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -25397,7 +25403,7 @@
       <c r="DS196" s="1"/>
       <c r="DT196" s="1"/>
     </row>
-    <row r="197" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -25523,7 +25529,7 @@
       <c r="DS197" s="1"/>
       <c r="DT197" s="1"/>
     </row>
-    <row r="198" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -25649,7 +25655,7 @@
       <c r="DS198" s="1"/>
       <c r="DT198" s="1"/>
     </row>
-    <row r="199" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -25775,7 +25781,7 @@
       <c r="DS199" s="1"/>
       <c r="DT199" s="1"/>
     </row>
-    <row r="200" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -25901,7 +25907,7 @@
       <c r="DS200" s="1"/>
       <c r="DT200" s="1"/>
     </row>
-    <row r="201" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -26003,7 +26009,7 @@
       <c r="CU201" s="12"/>
       <c r="CV201" s="12"/>
     </row>
-    <row r="202" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -26105,7 +26111,7 @@
       <c r="CU202" s="12"/>
       <c r="CV202" s="12"/>
     </row>
-    <row r="203" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -26207,7 +26213,7 @@
       <c r="CU203" s="12"/>
       <c r="CV203" s="12"/>
     </row>
-    <row r="204" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -26309,7 +26315,7 @@
       <c r="CU204" s="12"/>
       <c r="CV204" s="12"/>
     </row>
-    <row r="205" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -26411,7 +26417,7 @@
       <c r="CU205" s="12"/>
       <c r="CV205" s="12"/>
     </row>
-    <row r="206" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -26513,7 +26519,7 @@
       <c r="CU206" s="12"/>
       <c r="CV206" s="12"/>
     </row>
-    <row r="207" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -26615,7 +26621,7 @@
       <c r="CU207" s="12"/>
       <c r="CV207" s="12"/>
     </row>
-    <row r="208" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:124" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -26717,7 +26723,7 @@
       <c r="CU208" s="12"/>
       <c r="CV208" s="12"/>
     </row>
-    <row r="209" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -26819,7 +26825,7 @@
       <c r="CU209" s="12"/>
       <c r="CV209" s="12"/>
     </row>
-    <row r="210" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -26921,7 +26927,7 @@
       <c r="CU210" s="12"/>
       <c r="CV210" s="12"/>
     </row>
-    <row r="211" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -27023,7 +27029,7 @@
       <c r="CU211" s="12"/>
       <c r="CV211" s="12"/>
     </row>
-    <row r="212" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -27125,7 +27131,7 @@
       <c r="CU212" s="12"/>
       <c r="CV212" s="12"/>
     </row>
-    <row r="213" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -27227,7 +27233,7 @@
       <c r="CU213" s="12"/>
       <c r="CV213" s="12"/>
     </row>
-    <row r="214" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -27329,7 +27335,7 @@
       <c r="CU214" s="12"/>
       <c r="CV214" s="12"/>
     </row>
-    <row r="215" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -27431,7 +27437,7 @@
       <c r="CU215" s="12"/>
       <c r="CV215" s="12"/>
     </row>
-    <row r="216" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -27533,7 +27539,7 @@
       <c r="CU216" s="12"/>
       <c r="CV216" s="12"/>
     </row>
-    <row r="217" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -27635,7 +27641,7 @@
       <c r="CU217" s="12"/>
       <c r="CV217" s="12"/>
     </row>
-    <row r="218" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -27737,7 +27743,7 @@
       <c r="CU218" s="12"/>
       <c r="CV218" s="12"/>
     </row>
-    <row r="219" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -27839,7 +27845,7 @@
       <c r="CU219" s="12"/>
       <c r="CV219" s="12"/>
     </row>
-    <row r="220" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -27941,7 +27947,7 @@
       <c r="CU220" s="12"/>
       <c r="CV220" s="12"/>
     </row>
-    <row r="221" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -28043,7 +28049,7 @@
       <c r="CU221" s="12"/>
       <c r="CV221" s="12"/>
     </row>
-    <row r="222" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -28145,7 +28151,7 @@
       <c r="CU222" s="12"/>
       <c r="CV222" s="12"/>
     </row>
-    <row r="223" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -28247,7 +28253,7 @@
       <c r="CU223" s="12"/>
       <c r="CV223" s="12"/>
     </row>
-    <row r="224" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -28349,7 +28355,7 @@
       <c r="CU224" s="12"/>
       <c r="CV224" s="12"/>
     </row>
-    <row r="225" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -28451,7 +28457,7 @@
       <c r="CU225" s="12"/>
       <c r="CV225" s="12"/>
     </row>
-    <row r="226" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -28553,7 +28559,7 @@
       <c r="CU226" s="12"/>
       <c r="CV226" s="12"/>
     </row>
-    <row r="227" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -28655,7 +28661,7 @@
       <c r="CU227" s="12"/>
       <c r="CV227" s="12"/>
     </row>
-    <row r="228" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -28757,7 +28763,7 @@
       <c r="CU228" s="12"/>
       <c r="CV228" s="12"/>
     </row>
-    <row r="229" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -28859,7 +28865,7 @@
       <c r="CU229" s="12"/>
       <c r="CV229" s="12"/>
     </row>
-    <row r="230" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -28961,7 +28967,7 @@
       <c r="CU230" s="12"/>
       <c r="CV230" s="12"/>
     </row>
-    <row r="231" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -29063,7 +29069,7 @@
       <c r="CU231" s="12"/>
       <c r="CV231" s="12"/>
     </row>
-    <row r="232" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -29165,7 +29171,7 @@
       <c r="CU232" s="12"/>
       <c r="CV232" s="12"/>
     </row>
-    <row r="233" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -29267,7 +29273,7 @@
       <c r="CU233" s="12"/>
       <c r="CV233" s="12"/>
     </row>
-    <row r="234" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -29369,7 +29375,7 @@
       <c r="CU234" s="12"/>
       <c r="CV234" s="12"/>
     </row>
-    <row r="235" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -29471,7 +29477,7 @@
       <c r="CU235" s="12"/>
       <c r="CV235" s="12"/>
     </row>
-    <row r="236" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -29573,7 +29579,7 @@
       <c r="CU236" s="12"/>
       <c r="CV236" s="12"/>
     </row>
-    <row r="237" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -29675,7 +29681,7 @@
       <c r="CU237" s="12"/>
       <c r="CV237" s="12"/>
     </row>
-    <row r="238" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -29777,7 +29783,7 @@
       <c r="CU238" s="12"/>
       <c r="CV238" s="12"/>
     </row>
-    <row r="239" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -29879,7 +29885,7 @@
       <c r="CU239" s="12"/>
       <c r="CV239" s="12"/>
     </row>
-    <row r="240" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="12"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -29981,7 +29987,7 @@
       <c r="CU240" s="12"/>
       <c r="CV240" s="12"/>
     </row>
-    <row r="241" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -30083,7 +30089,7 @@
       <c r="CU241" s="12"/>
       <c r="CV241" s="12"/>
     </row>
-    <row r="242" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -30185,7 +30191,7 @@
       <c r="CU242" s="12"/>
       <c r="CV242" s="12"/>
     </row>
-    <row r="243" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -30287,7 +30293,7 @@
       <c r="CU243" s="12"/>
       <c r="CV243" s="12"/>
     </row>
-    <row r="244" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -30389,7 +30395,7 @@
       <c r="CU244" s="12"/>
       <c r="CV244" s="12"/>
     </row>
-    <row r="245" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -30491,7 +30497,7 @@
       <c r="CU245" s="12"/>
       <c r="CV245" s="12"/>
     </row>
-    <row r="246" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -30593,7 +30599,7 @@
       <c r="CU246" s="12"/>
       <c r="CV246" s="12"/>
     </row>
-    <row r="247" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="12"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -30695,7 +30701,7 @@
       <c r="CU247" s="12"/>
       <c r="CV247" s="12"/>
     </row>
-    <row r="248" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -30797,7 +30803,7 @@
       <c r="CU248" s="12"/>
       <c r="CV248" s="12"/>
     </row>
-    <row r="249" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -30899,7 +30905,7 @@
       <c r="CU249" s="12"/>
       <c r="CV249" s="12"/>
     </row>
-    <row r="250" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -31001,7 +31007,7 @@
       <c r="CU250" s="12"/>
       <c r="CV250" s="12"/>
     </row>
-    <row r="251" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -31103,7 +31109,7 @@
       <c r="CU251" s="12"/>
       <c r="CV251" s="12"/>
     </row>
-    <row r="252" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -31205,7 +31211,7 @@
       <c r="CU252" s="12"/>
       <c r="CV252" s="12"/>
     </row>
-    <row r="253" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -31307,7 +31313,7 @@
       <c r="CU253" s="12"/>
       <c r="CV253" s="12"/>
     </row>
-    <row r="254" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -31409,7 +31415,7 @@
       <c r="CU254" s="12"/>
       <c r="CV254" s="12"/>
     </row>
-    <row r="255" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -31511,7 +31517,7 @@
       <c r="CU255" s="12"/>
       <c r="CV255" s="12"/>
     </row>
-    <row r="256" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="12"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -31613,7 +31619,7 @@
       <c r="CU256" s="12"/>
       <c r="CV256" s="12"/>
     </row>
-    <row r="257" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="12"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -31715,7 +31721,7 @@
       <c r="CU257" s="12"/>
       <c r="CV257" s="12"/>
     </row>
-    <row r="258" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
@@ -31817,7 +31823,7 @@
       <c r="CU258" s="12"/>
       <c r="CV258" s="12"/>
     </row>
-    <row r="259" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -31919,7 +31925,7 @@
       <c r="CU259" s="12"/>
       <c r="CV259" s="12"/>
     </row>
-    <row r="260" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -32021,7 +32027,7 @@
       <c r="CU260" s="12"/>
       <c r="CV260" s="12"/>
     </row>
-    <row r="261" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -32123,7 +32129,7 @@
       <c r="CU261" s="12"/>
       <c r="CV261" s="12"/>
     </row>
-    <row r="262" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="12"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -32225,7 +32231,7 @@
       <c r="CU262" s="12"/>
       <c r="CV262" s="12"/>
     </row>
-    <row r="263" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -32327,7 +32333,7 @@
       <c r="CU263" s="12"/>
       <c r="CV263" s="12"/>
     </row>
-    <row r="264" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -32429,7 +32435,7 @@
       <c r="CU264" s="12"/>
       <c r="CV264" s="12"/>
     </row>
-    <row r="265" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -32531,7 +32537,7 @@
       <c r="CU265" s="12"/>
       <c r="CV265" s="12"/>
     </row>
-    <row r="266" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="12"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -32633,7 +32639,7 @@
       <c r="CU266" s="12"/>
       <c r="CV266" s="12"/>
     </row>
-    <row r="267" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -32735,7 +32741,7 @@
       <c r="CU267" s="12"/>
       <c r="CV267" s="12"/>
     </row>
-    <row r="268" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -32837,7 +32843,7 @@
       <c r="CU268" s="12"/>
       <c r="CV268" s="12"/>
     </row>
-    <row r="269" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -32939,7 +32945,7 @@
       <c r="CU269" s="12"/>
       <c r="CV269" s="12"/>
     </row>
-    <row r="270" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -33041,7 +33047,7 @@
       <c r="CU270" s="12"/>
       <c r="CV270" s="12"/>
     </row>
-    <row r="271" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -33143,7 +33149,7 @@
       <c r="CU271" s="12"/>
       <c r="CV271" s="12"/>
     </row>
-    <row r="272" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -33245,7 +33251,7 @@
       <c r="CU272" s="12"/>
       <c r="CV272" s="12"/>
     </row>
-    <row r="273" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -33347,7 +33353,7 @@
       <c r="CU273" s="12"/>
       <c r="CV273" s="12"/>
     </row>
-    <row r="274" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -33449,7 +33455,7 @@
       <c r="CU274" s="12"/>
       <c r="CV274" s="12"/>
     </row>
-    <row r="275" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -33551,7 +33557,7 @@
       <c r="CU275" s="12"/>
       <c r="CV275" s="12"/>
     </row>
-    <row r="276" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -33653,7 +33659,7 @@
       <c r="CU276" s="12"/>
       <c r="CV276" s="12"/>
     </row>
-    <row r="277" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -33755,7 +33761,7 @@
       <c r="CU277" s="12"/>
       <c r="CV277" s="12"/>
     </row>
-    <row r="278" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -33857,7 +33863,7 @@
       <c r="CU278" s="12"/>
       <c r="CV278" s="12"/>
     </row>
-    <row r="279" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -33959,7 +33965,7 @@
       <c r="CU279" s="12"/>
       <c r="CV279" s="12"/>
     </row>
-    <row r="280" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -34061,7 +34067,7 @@
       <c r="CU280" s="12"/>
       <c r="CV280" s="12"/>
     </row>
-    <row r="281" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -34163,7 +34169,7 @@
       <c r="CU281" s="12"/>
       <c r="CV281" s="12"/>
     </row>
-    <row r="282" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -34265,7 +34271,7 @@
       <c r="CU282" s="12"/>
       <c r="CV282" s="12"/>
     </row>
-    <row r="283" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -34367,7 +34373,7 @@
       <c r="CU283" s="12"/>
       <c r="CV283" s="12"/>
     </row>
-    <row r="284" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -34469,7 +34475,7 @@
       <c r="CU284" s="12"/>
       <c r="CV284" s="12"/>
     </row>
-    <row r="285" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -34571,7 +34577,7 @@
       <c r="CU285" s="12"/>
       <c r="CV285" s="12"/>
     </row>
-    <row r="286" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -34673,7 +34679,7 @@
       <c r="CU286" s="12"/>
       <c r="CV286" s="12"/>
     </row>
-    <row r="287" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -34775,7 +34781,7 @@
       <c r="CU287" s="12"/>
       <c r="CV287" s="12"/>
     </row>
-    <row r="288" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -34877,7 +34883,7 @@
       <c r="CU288" s="12"/>
       <c r="CV288" s="12"/>
     </row>
-    <row r="289" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -34979,7 +34985,7 @@
       <c r="CU289" s="12"/>
       <c r="CV289" s="12"/>
     </row>
-    <row r="290" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -35081,7 +35087,7 @@
       <c r="CU290" s="12"/>
       <c r="CV290" s="12"/>
     </row>
-    <row r="291" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -35183,7 +35189,7 @@
       <c r="CU291" s="12"/>
       <c r="CV291" s="12"/>
     </row>
-    <row r="292" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -35285,7 +35291,7 @@
       <c r="CU292" s="12"/>
       <c r="CV292" s="12"/>
     </row>
-    <row r="293" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -35387,7 +35393,7 @@
       <c r="CU293" s="12"/>
       <c r="CV293" s="12"/>
     </row>
-    <row r="294" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -35489,7 +35495,7 @@
       <c r="CU294" s="12"/>
       <c r="CV294" s="12"/>
     </row>
-    <row r="295" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -35591,7 +35597,7 @@
       <c r="CU295" s="12"/>
       <c r="CV295" s="12"/>
     </row>
-    <row r="296" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -35693,7 +35699,7 @@
       <c r="CU296" s="12"/>
       <c r="CV296" s="12"/>
     </row>
-    <row r="297" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -35795,7 +35801,7 @@
       <c r="CU297" s="12"/>
       <c r="CV297" s="12"/>
     </row>
-    <row r="298" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -35897,7 +35903,7 @@
       <c r="CU298" s="12"/>
       <c r="CV298" s="12"/>
     </row>
-    <row r="299" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -35999,7 +36005,7 @@
       <c r="CU299" s="12"/>
       <c r="CV299" s="12"/>
     </row>
-    <row r="300" spans="1:100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:100" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -36101,543 +36107,544 @@
       <c r="CU300" s="12"/>
       <c r="CV300" s="12"/>
     </row>
-    <row r="301" spans="1:100" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="1:100" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" spans="1:100" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="1:100" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:100" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" spans="1:100" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" spans="1:100" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" spans="1:100" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
